--- a/Final Project/Tasks.xlsx
+++ b/Final Project/Tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MIU\WAP\Workspace\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MIU\WAP\Git\wap\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22CFE4F-1F2B-4BD9-9631-469843714BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E0D5F0-0DE5-43AE-8ED7-E2FBADCD929A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
   <si>
     <t>-        Home (Restaurant introduction)</t>
   </si>
@@ -76,6 +76,42 @@
   </si>
   <si>
     <t>Setup database</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Merge and check</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Start</t>
   </si>
 </sst>
 </file>
@@ -99,12 +135,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,9 +161,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,23 +445,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +490,26 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -437,8 +518,26 @@
       <c r="H4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -447,8 +546,26 @@
       <c r="H5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -457,8 +574,26 @@
       <c r="H6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -467,8 +602,26 @@
       <c r="H7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -477,8 +630,26 @@
       <c r="H8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -487,8 +658,26 @@
       <c r="H9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -497,8 +686,26 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -507,8 +714,26 @@
       <c r="H11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -517,18 +742,36 @@
       <c r="H12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -537,8 +780,14 @@
       <c r="H15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -547,8 +796,14 @@
       <c r="H16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>16</v>
@@ -556,6 +811,12 @@
       <c r="D17" s="1"/>
       <c r="H17" t="s">
         <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
